--- a/ONCHO/Impact Assessments/Nigeria/2023/oct/ng_oncho_stop_2_participant_202310.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2023/oct/ng_oncho_stop_2_participant_202310.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2023\july\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2023\oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA2E46E-814A-4894-A118-3000163BDA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A7A9E5-BFFE-4F1A-9E26-397132E84BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -429,10 +429,10 @@
     <t>TIKIRZE</t>
   </si>
   <si>
-    <t>ng_oncho_stop_2_participant_202307_kano</t>
-  </si>
-  <si>
-    <t>(2023 July) - 2. (Kano) Participant Form</t>
+    <t>ng_oncho_stop_2_participant_202310</t>
+  </si>
+  <si>
+    <t>(2023 Oct) - 2. Participant Form</t>
   </si>
 </sst>
 </file>
@@ -2630,7 +2630,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
